--- a/conteudoBandtecBachega/exercicio2mariseExcel.xlsx
+++ b/conteudoBandtecBachega/exercicio2mariseExcel.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Máquina Virtual\Bachega-s-repository\conteudoBandtecBachega\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="exercicio 1" sheetId="1" r:id="rId1"/>
+    <sheet name="exercício 01 18" sheetId="2" r:id="rId2"/>
+    <sheet name="exercício 02 18" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>A</t>
   </si>
@@ -61,13 +63,57 @@
   <si>
     <t>S S4.G</t>
   </si>
+  <si>
+    <t>Tabela Verdade</t>
+  </si>
+  <si>
+    <t>S3=(D.E)</t>
+  </si>
+  <si>
+    <t>S4=(S2+S3)</t>
+  </si>
+  <si>
+    <t>S= (S4.F)</t>
+  </si>
+  <si>
+    <t>S1=!(A+B)</t>
+  </si>
+  <si>
+    <t>Equação:</t>
+  </si>
+  <si>
+    <t>S2=S1.C</t>
+  </si>
+  <si>
+    <t>S3=D xor E</t>
+  </si>
+  <si>
+    <t>S4=S2+S3</t>
+  </si>
+  <si>
+    <t>S2 = !(S1.C)</t>
+  </si>
+  <si>
+    <t>S1=!(AxorB)</t>
+  </si>
+  <si>
+    <t>S=((!(AxorB).C)+(D.E)).F</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -95,8 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,7 +439,7 @@
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -464,7 +512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -499,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -534,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -569,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -604,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -638,8 +686,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -674,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -708,8 +759,11 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -744,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -757,7 +811,7 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11">
@@ -778,8 +832,12 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -814,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -848,8 +906,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -884,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -918,8 +979,11 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -954,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -988,8 +1052,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1024,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1059,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1094,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1128,8 +1195,11 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1164,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1198,8 +1268,11 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1234,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1268,8 +1341,11 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1304,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1338,8 +1414,11 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1374,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1408,8 +1487,11 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1444,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1478,8 +1560,11 @@
       <c r="K31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1514,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1548,8 +1633,11 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1584,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1619,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1654,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -1688,8 +1776,11 @@
       <c r="K37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1724,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -1758,8 +1849,11 @@
       <c r="K39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1794,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -1828,8 +1922,11 @@
       <c r="K41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -1864,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -1898,8 +1995,11 @@
       <c r="K43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -1934,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -1968,8 +2068,11 @@
       <c r="K45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -2004,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -2038,8 +2141,11 @@
       <c r="K47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -2074,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -2108,8 +2214,11 @@
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -2144,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -2178,8 +2287,11 @@
       <c r="K51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -2214,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -2248,8 +2360,11 @@
       <c r="K53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -2284,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -2318,8 +2433,11 @@
       <c r="K55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
@@ -2354,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -2388,8 +2506,11 @@
       <c r="K57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -2424,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -2458,8 +2579,11 @@
       <c r="K59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -2494,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -2528,8 +2652,11 @@
       <c r="K61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -2564,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -2598,8 +2725,11 @@
       <c r="K63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0</v>
       </c>
@@ -2634,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -2668,8 +2798,11 @@
       <c r="K65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2704,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2739,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2774,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2808,8 +2941,11 @@
       <c r="K69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2844,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2878,8 +3014,11 @@
       <c r="K71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2914,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2948,8 +3087,11 @@
       <c r="K73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2984,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3018,8 +3160,11 @@
       <c r="K75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3054,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3088,8 +3233,11 @@
       <c r="K77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3124,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3158,8 +3306,11 @@
       <c r="K79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3194,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3228,8 +3379,11 @@
       <c r="K81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3264,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3298,8 +3452,11 @@
       <c r="K83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3334,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3368,8 +3525,11 @@
       <c r="K85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3404,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3438,8 +3598,11 @@
       <c r="K87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3474,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3508,8 +3671,11 @@
       <c r="K89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3544,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3578,8 +3744,11 @@
       <c r="K91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3614,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3648,8 +3817,11 @@
       <c r="K93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3684,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3718,8 +3890,11 @@
       <c r="K95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3754,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3788,8 +3963,11 @@
       <c r="K97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3824,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3859,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3894,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3928,8 +4106,11 @@
       <c r="K101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3964,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3998,8 +4179,11 @@
       <c r="K103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4034,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -4068,8 +4252,11 @@
       <c r="K105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4104,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4138,8 +4325,11 @@
       <c r="K107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4174,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4208,8 +4398,11 @@
       <c r="K109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4244,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -4278,8 +4471,11 @@
       <c r="K111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4314,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4348,8 +4544,11 @@
       <c r="K113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4384,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4418,8 +4617,11 @@
       <c r="K115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -4454,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -4488,8 +4690,11 @@
       <c r="K117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4524,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4558,8 +4763,11 @@
       <c r="K119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4594,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4628,8 +4836,11 @@
       <c r="K121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4664,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4698,8 +4909,11 @@
       <c r="K123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4734,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4768,8 +4982,11 @@
       <c r="K125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4804,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -4838,8 +5055,11 @@
       <c r="K127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4874,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -4906,12 +5126,15 @@
         <v>1</v>
       </c>
       <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4921,7 +5144,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4931,7 +5154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4941,7 +5164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4951,7 +5174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4960,6 +5183,3730 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="8" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:F1048576 G2">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:K1048576 L1">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FF002060"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF7030A0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A65">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:F65">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>